--- a/raw_data/20200818_saline/20200818_Sensor3_Test_31.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_31.xlsx
@@ -1,703 +1,1119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4B0594-9C75-47C7-885B-778B02DDD05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>27557.289947</v>
+        <v>27557.289947000001</v>
       </c>
       <c r="B2" s="1">
-        <v>7.654803</v>
+        <v>7.6548030000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1148.810000</v>
+        <v>1148.81</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.302000</v>
+        <v>-261.30200000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>27567.972781</v>
       </c>
       <c r="G2" s="1">
-        <v>7.657770</v>
+        <v>7.6577700000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1170.450000</v>
+        <v>1170.45</v>
       </c>
       <c r="I2" s="1">
-        <v>-219.153000</v>
+        <v>-219.15299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>27578.437871</v>
+        <v>27578.437870999998</v>
       </c>
       <c r="L2" s="1">
-        <v>7.660677</v>
+        <v>7.6606769999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>1198.350000</v>
+        <v>1198.3499999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.919000</v>
+        <v>-151.91900000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>27588.689682</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.663525</v>
+        <v>7.6635249999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1206.050000</v>
+        <v>1206.05</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.291000</v>
+        <v>-129.291</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>27598.988612</v>
+        <v>27598.988612000001</v>
       </c>
       <c r="V2" s="1">
-        <v>7.666386</v>
+        <v>7.6663860000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1213.310000</v>
+        <v>1213.31</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.023000</v>
+        <v>-108.023</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>27609.408567</v>
+        <v>27609.408566999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.669280</v>
+        <v>7.6692799999999997</v>
       </c>
       <c r="AB2" s="1">
-        <v>1220.610000</v>
+        <v>1220.6099999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.713700</v>
+        <v>-90.713700000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>27619.676248</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.672132</v>
+        <v>7.6721320000000004</v>
       </c>
       <c r="AG2" s="1">
-        <v>1225.090000</v>
+        <v>1225.0899999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.132600</v>
+        <v>-86.132599999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>27629.828364</v>
+        <v>27629.828364000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.674952</v>
+        <v>7.6749520000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1232.030000</v>
+        <v>1232.03</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.303800</v>
+        <v>-89.303799999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>27640.410048</v>
+        <v>27640.410048000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.677892</v>
+        <v>7.6778919999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.268000</v>
+        <v>-101.268</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>27651.418719</v>
+        <v>27651.418719000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.680950</v>
+        <v>7.6809500000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1249.540000</v>
+        <v>1249.54</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.615000</v>
+        <v>-120.61499999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>27662.809839</v>
+        <v>27662.809839000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.684114</v>
+        <v>7.6841140000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.199000</v>
+        <v>-138.19900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>27673.722818</v>
+        <v>27673.722817999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.687145</v>
+        <v>7.6871450000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.430000</v>
+        <v>1297.43</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.967000</v>
+        <v>-220.96700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>27684.720642</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.690200</v>
+        <v>7.6901999999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1366.980000</v>
+        <v>1366.98</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.174000</v>
+        <v>-359.17399999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>27695.777459</v>
+        <v>27695.777459000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.693272</v>
+        <v>7.6932720000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1481.970000</v>
+        <v>1481.97</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-583.913000</v>
+        <v>-583.91300000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>27706.395317</v>
+        <v>27706.395316999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.696221</v>
+        <v>7.6962210000000004</v>
       </c>
       <c r="BU2" s="1">
-        <v>1614.360000</v>
+        <v>1614.36</v>
       </c>
       <c r="BV2" s="1">
-        <v>-837.115000</v>
+        <v>-837.11500000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>27717.891559</v>
@@ -706,45 +1122,45 @@
         <v>7.699414</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1767.620000</v>
+        <v>1767.62</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1113.520000</v>
+        <v>-1113.52</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>27728.910692</v>
+        <v>27728.910692000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.702475</v>
+        <v>7.7024749999999997</v>
       </c>
       <c r="CE2" s="1">
-        <v>2186.240000</v>
+        <v>2186.2399999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1783.580000</v>
+        <v>-1783.58</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>27557.953098</v>
+        <v>27557.953098000002</v>
       </c>
       <c r="B3" s="1">
-        <v>7.654987</v>
+        <v>7.6549870000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1148.930000</v>
+        <v>1148.93</v>
       </c>
       <c r="D3" s="1">
-        <v>-260.934000</v>
+        <v>-260.93400000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>27568.380492</v>
@@ -753,465 +1169,465 @@
         <v>7.657883</v>
       </c>
       <c r="H3" s="1">
-        <v>1170.590000</v>
+        <v>1170.5899999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-219.286000</v>
+        <v>-219.286</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>27578.847566</v>
       </c>
       <c r="L3" s="1">
-        <v>7.660791</v>
+        <v>7.6607909999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>1198.180000</v>
+        <v>1198.18</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.497000</v>
+        <v>-151.49700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>27589.039361</v>
+        <v>27589.039360999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.663622</v>
+        <v>7.6636220000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1206.030000</v>
+        <v>1206.03</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.235000</v>
+        <v>-129.23500000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>27599.335811</v>
+        <v>27599.335811000001</v>
       </c>
       <c r="V3" s="1">
-        <v>7.666482</v>
+        <v>7.6664820000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1213.360000</v>
+        <v>1213.3599999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.135000</v>
+        <v>-108.13500000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>27609.790495</v>
+        <v>27609.790495000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.669386</v>
+        <v>7.6693860000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>1220.520000</v>
+        <v>1220.52</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.656600</v>
+        <v>-90.656599999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>27620.102808</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.672251</v>
+        <v>7.6722510000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.106200</v>
+        <v>-86.106200000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>27630.252938</v>
+        <v>27630.252938000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.675070</v>
+        <v>7.6750699999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>1232.000000</v>
+        <v>1232</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.299700</v>
+        <v>-89.299700000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>27640.851453</v>
+        <v>27640.851452999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.678014</v>
+        <v>7.6780140000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1239.770000</v>
+        <v>1239.77</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.234000</v>
+        <v>-101.23399999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>27651.787245</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.681052</v>
+        <v>7.6810520000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1249.560000</v>
+        <v>1249.56</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.601000</v>
+        <v>-120.601</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>27663.187295</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.684219</v>
+        <v>7.6842189999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.191000</v>
+        <v>-138.191</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>27674.084096</v>
+        <v>27674.084095999999</v>
       </c>
       <c r="BE3" s="1">
         <v>7.687246</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.450000</v>
+        <v>1297.45</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.957000</v>
+        <v>-220.95699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>27685.475059</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.690410</v>
+        <v>7.69041</v>
       </c>
       <c r="BK3" s="1">
-        <v>1367.000000</v>
+        <v>1367</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.182000</v>
+        <v>-359.18200000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>27696.212420</v>
+        <v>27696.21242</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.693392</v>
+        <v>7.6933920000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1481.950000</v>
+        <v>1481.95</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-583.952000</v>
+        <v>-583.952</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>27706.818869</v>
+        <v>27706.818868999999</v>
       </c>
       <c r="BT3" s="1">
         <v>7.696339</v>
       </c>
       <c r="BU3" s="1">
-        <v>1614.590000</v>
+        <v>1614.59</v>
       </c>
       <c r="BV3" s="1">
-        <v>-837.078000</v>
+        <v>-837.07799999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>27718.375196</v>
+        <v>27718.375196000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.699549</v>
+        <v>7.6995490000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1767.520000</v>
+        <v>1767.52</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1113.660000</v>
+        <v>-1113.6600000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>27729.506871</v>
+        <v>27729.506871000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.702641</v>
+        <v>7.7026409999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>2187.470000</v>
+        <v>2187.4699999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1785.320000</v>
+        <v>-1785.32</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>27558.326090</v>
+        <v>27558.326089999999</v>
       </c>
       <c r="B4" s="1">
-        <v>7.655091</v>
+        <v>7.6550909999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>1148.670000</v>
+        <v>1148.67</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.139000</v>
+        <v>-261.13900000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>27568.724715</v>
       </c>
       <c r="G4" s="1">
-        <v>7.657979</v>
+        <v>7.6579790000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1170.670000</v>
+        <v>1170.67</v>
       </c>
       <c r="I4" s="1">
-        <v>-218.401000</v>
+        <v>-218.40100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>27579.195262</v>
+        <v>27579.195262000001</v>
       </c>
       <c r="L4" s="1">
-        <v>7.660888</v>
+        <v>7.6608879999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1198.310000</v>
+        <v>1198.31</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.714000</v>
+        <v>-151.714</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>27589.389068</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.663719</v>
+        <v>7.6637190000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>1206.060000</v>
+        <v>1206.06</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.273000</v>
+        <v>-129.273</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>27599.992516</v>
+        <v>27599.992515999998</v>
       </c>
       <c r="V4" s="1">
-        <v>7.666665</v>
+        <v>7.6666650000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1213.340000</v>
+        <v>1213.3399999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.101000</v>
+        <v>-108.101</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>27610.212085</v>
+        <v>27610.212084999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.669503</v>
+        <v>7.6695029999999997</v>
       </c>
       <c r="AB4" s="1">
-        <v>1220.610000</v>
+        <v>1220.6099999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.690000</v>
+        <v>-90.69</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>27620.439625</v>
+        <v>27620.439624999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.672344</v>
+        <v>7.6723439999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1225.070000</v>
+        <v>1225.07</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.070800</v>
+        <v>-86.070800000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>27630.590746</v>
+        <v>27630.590746000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.675164</v>
+        <v>7.6751639999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>1232.010000</v>
+        <v>1232.01</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.308100</v>
+        <v>-89.308099999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>27641.210060</v>
+        <v>27641.210060000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.678114</v>
+        <v>7.6781139999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1239.770000</v>
+        <v>1239.77</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.248000</v>
+        <v>-101.248</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>27652.148365</v>
+        <v>27652.148365000001</v>
       </c>
       <c r="AU4" s="1">
         <v>7.681152</v>
       </c>
       <c r="AV4" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.588000</v>
+        <v>-120.58799999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>27663.546435</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.684318</v>
+        <v>7.6843180000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.860000</v>
+        <v>1257.8599999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.212000</v>
+        <v>-138.21199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>27674.809057</v>
+        <v>27674.809056999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.687447</v>
+        <v>7.6874469999999997</v>
       </c>
       <c r="BF4" s="1">
-        <v>1297.450000</v>
+        <v>1297.45</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.973000</v>
+        <v>-220.97300000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>27685.877777</v>
+        <v>27685.877777000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.690522</v>
+        <v>7.6905219999999996</v>
       </c>
       <c r="BK4" s="1">
-        <v>1366.980000</v>
+        <v>1366.98</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.184000</v>
+        <v>-359.18400000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>27696.628067</v>
+        <v>27696.628067000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.693508</v>
+        <v>7.6935079999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1481.980000</v>
+        <v>1481.98</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-583.973000</v>
+        <v>-583.97299999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>27707.234549</v>
+        <v>27707.234549000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.696454</v>
+        <v>7.6964540000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1614.820000</v>
+        <v>1614.82</v>
       </c>
       <c r="BV4" s="1">
-        <v>-837.040000</v>
+        <v>-837.04</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>27719.124614</v>
@@ -1220,210 +1636,210 @@
         <v>7.699757</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1767.430000</v>
+        <v>1767.43</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1113.480000</v>
+        <v>-1113.48</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>27730.268230</v>
+        <v>27730.268230000001</v>
       </c>
       <c r="CD4" s="1">
         <v>7.702852</v>
       </c>
       <c r="CE4" s="1">
-        <v>2185.880000</v>
+        <v>2185.88</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1784.210000</v>
+        <v>-1784.21</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>27558.668825</v>
+        <v>27558.668825000001</v>
       </c>
       <c r="B5" s="1">
-        <v>7.655186</v>
+        <v>7.6551859999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>1148.890000</v>
+        <v>1148.8900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-260.979000</v>
+        <v>-260.97899999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>27569.069964</v>
+        <v>27569.069963999998</v>
       </c>
       <c r="G5" s="1">
-        <v>7.658075</v>
+        <v>7.6580750000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>1170.670000</v>
+        <v>1170.67</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.091000</v>
+        <v>-219.09100000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>27579.540477</v>
+        <v>27579.540476999999</v>
       </c>
       <c r="L5" s="1">
-        <v>7.660983</v>
+        <v>7.6609829999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1198.300000</v>
+        <v>1198.3</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.040000</v>
+        <v>-152.04</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>27589.804193</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.663834</v>
+        <v>7.6638339999999996</v>
       </c>
       <c r="R5" s="1">
-        <v>1206.120000</v>
+        <v>1206.1199999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.278000</v>
+        <v>-129.27799999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>27600.365043</v>
+        <v>27600.365043000002</v>
       </c>
       <c r="V5" s="1">
-        <v>7.666768</v>
+        <v>7.6667680000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1213.280000</v>
+        <v>1213.28</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.117000</v>
+        <v>-108.117</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>27610.512164</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.669587</v>
+        <v>7.6695869999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1220.680000</v>
+        <v>1220.68</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.762100</v>
+        <v>-90.762100000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>27620.784807</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.672440</v>
+        <v>7.6724399999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1225.070000</v>
+        <v>1225.07</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.112100</v>
+        <v>-86.112099999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>27630.937915</v>
+        <v>27630.937914999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.675261</v>
+        <v>7.6752609999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1232.030000</v>
+        <v>1232.03</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.315100</v>
+        <v>-89.315100000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>27641.570431</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.678214</v>
+        <v>7.6782139999999997</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.214000</v>
+        <v>-101.214</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>27652.877948</v>
+        <v>27652.877948000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.681355</v>
+        <v>7.6813549999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1249.590000</v>
+        <v>1249.5899999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.610000</v>
+        <v>-120.61</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>27664.264606</v>
+        <v>27664.264606000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.684518</v>
+        <v>7.6845179999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.850000</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.200000</v>
+        <v>-138.19999999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>27675.196927</v>
+        <v>27675.196927000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.687555</v>
+        <v>7.6875549999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.420000</v>
+        <v>1297.42</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.939000</v>
+        <v>-220.93899999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>27686.252752</v>
@@ -1432,437 +1848,437 @@
         <v>7.690626</v>
       </c>
       <c r="BK5" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.151000</v>
+        <v>-359.15100000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>27697.017922</v>
+        <v>27697.017921999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.693616</v>
+        <v>7.6936159999999996</v>
       </c>
       <c r="BP5" s="1">
-        <v>1482.010000</v>
+        <v>1482.01</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-584.006000</v>
+        <v>-584.00599999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>27707.990917</v>
+        <v>27707.990916999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.696664</v>
+        <v>7.6966640000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1615.010000</v>
+        <v>1615.01</v>
       </c>
       <c r="BV5" s="1">
-        <v>-837.243000</v>
+        <v>-837.24300000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>27719.255061</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.699793</v>
+        <v>7.6997929999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1767.340000</v>
+        <v>1767.34</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1113.590000</v>
+        <v>-1113.5899999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>27730.584710</v>
+        <v>27730.584709999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.702940</v>
+        <v>7.7029399999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2185.640000</v>
+        <v>2185.64</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1783.890000</v>
+        <v>-1783.89</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>27559.008585</v>
       </c>
       <c r="B6" s="1">
-        <v>7.655280</v>
+        <v>7.6552800000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>1148.980000</v>
+        <v>1148.98</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.033000</v>
+        <v>-261.03300000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>27569.509388</v>
+        <v>27569.509387999999</v>
       </c>
       <c r="G6" s="1">
-        <v>7.658197</v>
+        <v>7.6581970000000004</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.520000</v>
+        <v>1170.52</v>
       </c>
       <c r="I6" s="1">
-        <v>-219.292000</v>
+        <v>-219.292</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>27579.953645</v>
+        <v>27579.953645000001</v>
       </c>
       <c r="L6" s="1">
         <v>7.661098</v>
       </c>
       <c r="M6" s="1">
-        <v>1198.470000</v>
+        <v>1198.47</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.830000</v>
+        <v>-151.83000000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>27590.102783</v>
+        <v>27590.102782999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.663917</v>
+        <v>7.6639169999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.324000</v>
+        <v>-129.32400000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>27600.710226</v>
+        <v>27600.710225999999</v>
       </c>
       <c r="V6" s="1">
-        <v>7.666864</v>
+        <v>7.6668640000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>1213.250000</v>
+        <v>1213.25</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.965000</v>
+        <v>-107.965</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>27610.860387</v>
+        <v>27610.860387000001</v>
       </c>
       <c r="AA6" s="1">
         <v>7.669683</v>
       </c>
       <c r="AB6" s="1">
-        <v>1220.550000</v>
+        <v>1220.55</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.800100</v>
+        <v>-90.8001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>27621.128038</v>
+        <v>27621.128037999999</v>
       </c>
       <c r="AF6" s="1">
         <v>7.672536</v>
       </c>
       <c r="AG6" s="1">
-        <v>1225.090000</v>
+        <v>1225.0899999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.083000</v>
+        <v>-86.082999999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>27631.289577</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.675358</v>
+        <v>7.6753580000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1232.060000</v>
+        <v>1232.06</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.326800</v>
+        <v>-89.326800000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>27642.288858</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.678414</v>
+        <v>7.6784140000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1239.790000</v>
+        <v>1239.79</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.230000</v>
+        <v>-101.23</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>27653.262375</v>
+        <v>27653.262374999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.681462</v>
+        <v>7.6814619999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.591000</v>
+        <v>-120.59099999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>27664.621267</v>
+        <v>27664.621266999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.684617</v>
+        <v>7.6846170000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.820000</v>
+        <v>1257.82</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.180000</v>
+        <v>-138.18</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>27675.555040</v>
+        <v>27675.555039999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.687654</v>
+        <v>7.6876540000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1297.420000</v>
+        <v>1297.42</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.958000</v>
+        <v>-220.958</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>27686.936768</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.690816</v>
+        <v>7.6908159999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1366.990000</v>
+        <v>1366.99</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.222000</v>
+        <v>-359.22199999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>27697.598738</v>
+        <v>27697.598738000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.693777</v>
+        <v>7.6937769999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1481.980000</v>
+        <v>1481.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-583.977000</v>
+        <v>-583.97699999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>27708.103048</v>
+        <v>27708.103048000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.696695</v>
+        <v>7.6966950000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1615.130000</v>
+        <v>1615.13</v>
       </c>
       <c r="BV6" s="1">
-        <v>-837.395000</v>
+        <v>-837.39499999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>27719.680651</v>
+        <v>27719.680650999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.699911</v>
+        <v>7.6999110000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1767.490000</v>
+        <v>1767.49</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1113.550000</v>
+        <v>-1113.55</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>27731.100517</v>
+        <v>27731.100516999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.703083</v>
+        <v>7.7030830000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>2186.700000</v>
+        <v>2186.6999999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1785.640000</v>
+        <v>-1785.64</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>27559.443079</v>
+        <v>27559.443079000001</v>
       </c>
       <c r="B7" s="1">
-        <v>7.655401</v>
+        <v>7.6554010000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.000000</v>
+        <v>1149</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.106000</v>
+        <v>-261.10599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>27569.765847</v>
+        <v>27569.765846999999</v>
       </c>
       <c r="G7" s="1">
-        <v>7.658268</v>
+        <v>7.6582679999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>1170.840000</v>
+        <v>1170.8399999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.050000</v>
+        <v>-219.05</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>27580.230940</v>
+        <v>27580.230940000001</v>
       </c>
       <c r="L7" s="1">
-        <v>7.661175</v>
+        <v>7.6611750000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1198.360000</v>
+        <v>1198.3599999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.592000</v>
+        <v>-151.59200000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>27590.451471</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.664014</v>
+        <v>7.6640139999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.354000</v>
+        <v>-129.35400000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>27601.054984</v>
+        <v>27601.054983999999</v>
       </c>
       <c r="V7" s="1">
-        <v>7.666960</v>
+        <v>7.6669600000000004</v>
       </c>
       <c r="W7" s="1">
-        <v>1213.210000</v>
+        <v>1213.21</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.074000</v>
+        <v>-108.074</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>27611.208053</v>
+        <v>27611.208052999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.669780</v>
+        <v>7.6697800000000003</v>
       </c>
       <c r="AB7" s="1">
-        <v>1220.530000</v>
+        <v>1220.53</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.730400</v>
+        <v>-90.730400000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>27621.812551</v>
+        <v>27621.812550999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.672726</v>
+        <v>7.6727259999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1225.080000</v>
+        <v>1225.08</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.069200</v>
+        <v>-86.069199999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>27631.992941</v>
@@ -1871,527 +2287,527 @@
         <v>7.675554</v>
       </c>
       <c r="AL7" s="1">
-        <v>1232.010000</v>
+        <v>1232.01</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.321900</v>
+        <v>-89.321899999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>27642.649985</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.678514</v>
+        <v>7.6785139999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1239.750000</v>
+        <v>1239.75</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.240000</v>
+        <v>-101.24</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>27653.627405</v>
+        <v>27653.627404999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.681563</v>
+        <v>7.6815629999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>1249.520000</v>
+        <v>1249.52</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.588000</v>
+        <v>-120.58799999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>27664.977852</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.684716</v>
+        <v>7.6847159999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.870000</v>
+        <v>1257.8699999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.192000</v>
+        <v>-138.19200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>27676.226659</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.687841</v>
+        <v>7.6878409999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1297.430000</v>
+        <v>1297.43</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.949000</v>
+        <v>-220.94900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>27687.047345</v>
+        <v>27687.047344999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.690846</v>
+        <v>7.6908459999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1366.990000</v>
+        <v>1366.99</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.210000</v>
+        <v>-359.21</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>27697.832882</v>
+        <v>27697.832881999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.693842</v>
+        <v>7.6938420000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1482.000000</v>
+        <v>1482</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-584.024000</v>
+        <v>-584.024</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>27708.539491</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.696817</v>
+        <v>7.6968170000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1615.130000</v>
+        <v>1615.13</v>
       </c>
       <c r="BV7" s="1">
-        <v>-837.707000</v>
+        <v>-837.70699999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>27720.129803</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.700036</v>
+        <v>7.7000359999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1767.690000</v>
+        <v>1767.69</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1113.530000</v>
+        <v>-1113.53</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>27731.620853</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.703228</v>
+        <v>7.7032280000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>2187.980000</v>
+        <v>2187.98</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1782.970000</v>
+        <v>-1782.97</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>27559.700538</v>
+        <v>27559.700538000001</v>
       </c>
       <c r="B8" s="1">
-        <v>7.655472</v>
+        <v>7.6554719999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.100000</v>
+        <v>1149.0999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-260.765000</v>
+        <v>-260.76499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>27570.106075</v>
       </c>
       <c r="G8" s="1">
-        <v>7.658363</v>
+        <v>7.6583629999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>1170.130000</v>
+        <v>1170.1300000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-218.681000</v>
+        <v>-218.68100000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>27580.577612</v>
+        <v>27580.577612000001</v>
       </c>
       <c r="L8" s="1">
-        <v>7.661272</v>
+        <v>7.6612720000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>1198.320000</v>
+        <v>1198.32</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.666000</v>
+        <v>-151.666</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>27590.798704</v>
+        <v>27590.798704000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.664111</v>
+        <v>7.6641110000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1206.030000</v>
+        <v>1206.03</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.378000</v>
+        <v>-129.37799999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>27601.741904</v>
+        <v>27601.741903999999</v>
       </c>
       <c r="V8" s="1">
-        <v>7.667151</v>
+        <v>7.6671509999999996</v>
       </c>
       <c r="W8" s="1">
-        <v>1213.300000</v>
+        <v>1213.3</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.048000</v>
+        <v>-108.048</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>27611.906160</v>
+        <v>27611.906159999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.669974</v>
+        <v>7.6699739999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1220.290000</v>
+        <v>1220.29</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.645400</v>
+        <v>-90.645399999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>27622.156245</v>
+        <v>27622.156244999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.672821</v>
+        <v>7.6728209999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1225.150000</v>
+        <v>1225.1500000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.151900</v>
+        <v>-86.151899999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>27632.336668</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.675649</v>
+        <v>7.6756489999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1232.000000</v>
+        <v>1232</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.302400</v>
+        <v>-89.302400000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>27643.008059</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.678613</v>
+        <v>7.6786130000000004</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.241000</v>
+        <v>-101.241</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>27654.305471</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.681752</v>
+        <v>7.6817520000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>1249.560000</v>
+        <v>1249.56</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.619000</v>
+        <v>-120.619</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>27665.724863</v>
+        <v>27665.724862999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.684924</v>
+        <v>7.6849239999999996</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.860000</v>
+        <v>1257.8599999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.193000</v>
+        <v>-138.19300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>27676.675997</v>
+        <v>27676.675996999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.687966</v>
+        <v>7.6879660000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1297.440000</v>
+        <v>1297.44</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.936000</v>
+        <v>-220.93600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>27687.403504</v>
+        <v>27687.403504000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.690945</v>
+        <v>7.6909450000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1366.960000</v>
+        <v>1366.96</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.143000</v>
+        <v>-359.14299999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>27698.239605</v>
+        <v>27698.239604999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.693955</v>
+        <v>7.6939549999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1481.990000</v>
+        <v>1481.99</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-583.973000</v>
+        <v>-583.97299999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>27708.950186</v>
+        <v>27708.950185999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.696931</v>
+        <v>7.6969310000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1615.030000</v>
+        <v>1615.03</v>
       </c>
       <c r="BV8" s="1">
-        <v>-837.872000</v>
+        <v>-837.87199999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>27720.560036</v>
+        <v>27720.560035999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.700156</v>
+        <v>7.7001559999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1767.470000</v>
+        <v>1767.47</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1113.560000</v>
+        <v>-1113.56</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>27732.158979</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.703377</v>
+        <v>7.7033769999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>2185.900000</v>
+        <v>2185.9</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1784.620000</v>
+        <v>-1784.62</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>27560.044590</v>
+        <v>27560.044590000001</v>
       </c>
       <c r="B9" s="1">
-        <v>7.655568</v>
+        <v>7.6555679999999997</v>
       </c>
       <c r="C9" s="1">
-        <v>1148.630000</v>
+        <v>1148.6300000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.060000</v>
+        <v>-261.06</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>27570.452778</v>
+        <v>27570.452777999999</v>
       </c>
       <c r="G9" s="1">
-        <v>7.658459</v>
+        <v>7.6584589999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1169.950000</v>
+        <v>1169.95</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.758000</v>
+        <v>-218.75800000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>27580.920380</v>
+        <v>27580.92038</v>
       </c>
       <c r="L9" s="1">
-        <v>7.661367</v>
+        <v>7.6613670000000003</v>
       </c>
       <c r="M9" s="1">
-        <v>1198.620000</v>
+        <v>1198.6199999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.638000</v>
+        <v>-151.63800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>27591.499021</v>
       </c>
       <c r="Q9" s="1">
-        <v>7.664305</v>
+        <v>7.6643049999999997</v>
       </c>
       <c r="R9" s="1">
-        <v>1206.040000</v>
+        <v>1206.04</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.255000</v>
+        <v>-129.255</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>27602.084639</v>
+        <v>27602.084639000001</v>
       </c>
       <c r="V9" s="1">
-        <v>7.667246</v>
+        <v>7.6672459999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>1213.340000</v>
+        <v>1213.3399999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.062000</v>
+        <v>-108.062</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>27612.253154</v>
+        <v>27612.253154000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.670070</v>
+        <v>7.6700699999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1220.600000</v>
+        <v>1220.5999999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.725500</v>
+        <v>-90.725499999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>27622.499478</v>
+        <v>27622.499478000002</v>
       </c>
       <c r="AF9" s="1">
         <v>7.672917</v>
       </c>
       <c r="AG9" s="1">
-        <v>1225.090000</v>
+        <v>1225.0899999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.087700</v>
+        <v>-86.087699999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>27633.002263</v>
+        <v>27633.002262999998</v>
       </c>
       <c r="AK9" s="1">
         <v>7.675834</v>
       </c>
       <c r="AL9" s="1">
-        <v>1232.040000</v>
+        <v>1232.04</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.343600</v>
+        <v>-89.343599999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>27643.684105</v>
@@ -2400,437 +2816,437 @@
         <v>7.678801</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1239.770000</v>
+        <v>1239.77</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.242000</v>
+        <v>-101.242</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>27654.755308</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.681876</v>
+        <v>7.6818759999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1249.560000</v>
+        <v>1249.56</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.610000</v>
+        <v>-120.61</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>27666.084695</v>
+        <v>27666.084695000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.685024</v>
+        <v>7.6850240000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.830000</v>
+        <v>1257.83</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.187000</v>
+        <v>-138.18700000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>27677.036623</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.688066</v>
+        <v>7.6880660000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.440000</v>
+        <v>1297.44</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.967000</v>
+        <v>-220.96700000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>27687.779465</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.691050</v>
+        <v>7.6910499999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1367.000000</v>
+        <v>1367</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.183000</v>
+        <v>-359.18299999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>27698.664144</v>
+        <v>27698.664143999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.694073</v>
+        <v>7.6940730000000004</v>
       </c>
       <c r="BP9" s="1">
-        <v>1481.970000</v>
+        <v>1481.97</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-583.966000</v>
+        <v>-583.96600000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>27709.380986</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.697050</v>
+        <v>7.6970499999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1614.890000</v>
+        <v>1614.89</v>
       </c>
       <c r="BV9" s="1">
-        <v>-837.982000</v>
+        <v>-837.98199999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>27720.981667</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.700273</v>
+        <v>7.7002730000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1767.530000</v>
+        <v>1767.53</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1113.470000</v>
+        <v>-1113.47</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>27732.700115</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.703528</v>
+        <v>7.7035280000000004</v>
       </c>
       <c r="CE9" s="1">
-        <v>2187.820000</v>
+        <v>2187.8200000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1784.980000</v>
+        <v>-1784.98</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>27560.384518</v>
+        <v>27560.384517999999</v>
       </c>
       <c r="B10" s="1">
-        <v>7.655662</v>
+        <v>7.6556620000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>1148.790000</v>
+        <v>1148.79</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.022000</v>
+        <v>-261.02199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>27571.141720</v>
+        <v>27571.14172</v>
       </c>
       <c r="G10" s="1">
-        <v>7.658650</v>
+        <v>7.6586499999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>1170.700000</v>
+        <v>1170.7</v>
       </c>
       <c r="I10" s="1">
-        <v>-218.470000</v>
+        <v>-218.47</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>27581.614747</v>
       </c>
       <c r="L10" s="1">
-        <v>7.661560</v>
+        <v>7.6615599999999997</v>
       </c>
       <c r="M10" s="1">
-        <v>1197.910000</v>
+        <v>1197.9100000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.840000</v>
+        <v>-151.84</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>27591.846760</v>
+        <v>27591.84676</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.664402</v>
+        <v>7.6644019999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.324000</v>
+        <v>-129.32400000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>27602.430385</v>
       </c>
       <c r="V10" s="1">
-        <v>7.667342</v>
+        <v>7.6673419999999997</v>
       </c>
       <c r="W10" s="1">
-        <v>1213.280000</v>
+        <v>1213.28</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.039000</v>
+        <v>-108.039</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>27612.601315</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.670167</v>
+        <v>7.6701670000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1220.700000</v>
+        <v>1220.7</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.819800</v>
+        <v>-90.819800000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>27623.163125</v>
+        <v>27623.163124999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.673101</v>
+        <v>7.6731009999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1225.110000</v>
+        <v>1225.1099999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.105400</v>
+        <v>-86.105400000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>27633.393112</v>
+        <v>27633.393112000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.675943</v>
+        <v>7.6759430000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1232.050000</v>
+        <v>1232.05</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.317900</v>
+        <v>-89.317899999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>27644.121608</v>
+        <v>27644.121608000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.678923</v>
+        <v>7.6789230000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.224000</v>
+        <v>-101.224</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>27655.118378</v>
+        <v>27655.118377999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.681977</v>
+        <v>7.6819769999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1249.560000</v>
+        <v>1249.56</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.602000</v>
+        <v>-120.602</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>27666.442538</v>
+        <v>27666.442537999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.685123</v>
+        <v>7.6851229999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.870000</v>
+        <v>1257.8699999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.197000</v>
+        <v>-138.197</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>27677.397676</v>
+        <v>27677.397676000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.688166</v>
+        <v>7.6881659999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.450000</v>
+        <v>1297.45</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.924000</v>
+        <v>-220.92400000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>27688.196110</v>
+        <v>27688.196110000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.691166</v>
+        <v>7.6911659999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1367.000000</v>
+        <v>1367</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.215000</v>
+        <v>-359.21499999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>27699.044575</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.694179</v>
+        <v>7.6941790000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1481.980000</v>
+        <v>1481.98</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-584.006000</v>
+        <v>-584.00599999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>27709.809778</v>
+        <v>27709.809777999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.697169</v>
+        <v>7.6971689999999997</v>
       </c>
       <c r="BU10" s="1">
-        <v>1614.570000</v>
+        <v>1614.57</v>
       </c>
       <c r="BV10" s="1">
-        <v>-838.112000</v>
+        <v>-838.11199999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>27721.404226</v>
+        <v>27721.404225999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.700390</v>
+        <v>7.7003899999999996</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1767.430000</v>
+        <v>1767.43</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1113.450000</v>
+        <v>-1113.45</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>27733.238275</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.703677</v>
+        <v>7.7036769999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2186.850000</v>
+        <v>2186.85</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1783.020000</v>
+        <v>-1783.02</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>27561.066523</v>
+        <v>27561.066523000001</v>
       </c>
       <c r="B11" s="1">
-        <v>7.655852</v>
+        <v>7.6558520000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.970000</v>
+        <v>1148.97</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.059000</v>
+        <v>-261.05900000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>27571.491400</v>
+        <v>27571.491399999999</v>
       </c>
       <c r="G11" s="1">
-        <v>7.658748</v>
+        <v>7.6587480000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1170.190000</v>
+        <v>1170.19</v>
       </c>
       <c r="I11" s="1">
-        <v>-218.789000</v>
+        <v>-218.78899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>27581.958843</v>
       </c>
       <c r="L11" s="1">
-        <v>7.661655</v>
+        <v>7.6616549999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>1198.550000</v>
+        <v>1198.55</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.875000</v>
+        <v>-151.875</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>27592.193948</v>
@@ -2839,1555 +3255,1555 @@
         <v>7.664498</v>
       </c>
       <c r="R11" s="1">
-        <v>1206.100000</v>
+        <v>1206.0999999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.304000</v>
+        <v>-129.304</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>27603.086558</v>
+        <v>27603.086557999999</v>
       </c>
       <c r="V11" s="1">
-        <v>7.667524</v>
+        <v>7.6675240000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1213.310000</v>
+        <v>1213.31</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.201000</v>
+        <v>-108.20099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>27613.261986</v>
+        <v>27613.261986000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.670351</v>
+        <v>7.6703510000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1220.640000</v>
+        <v>1220.6400000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.721500</v>
+        <v>-90.721500000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>27623.530195</v>
+        <v>27623.530194999999</v>
       </c>
       <c r="AF11" s="1">
         <v>7.673203</v>
       </c>
       <c r="AG11" s="1">
-        <v>1225.090000</v>
+        <v>1225.0899999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.127900</v>
+        <v>-86.127899999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>27633.739846</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.676039</v>
+        <v>7.6760390000000003</v>
       </c>
       <c r="AL11" s="1">
-        <v>1232.010000</v>
+        <v>1232.01</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.289800</v>
+        <v>-89.2898</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>27644.481175</v>
+        <v>27644.481175000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.679023</v>
+        <v>7.6790229999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1239.800000</v>
+        <v>1239.8</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.245000</v>
+        <v>-101.245</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>27655.483962</v>
+        <v>27655.483961999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.682079</v>
+        <v>7.6820789999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1249.570000</v>
+        <v>1249.57</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.604000</v>
+        <v>-120.604</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>27666.867114</v>
+        <v>27666.867114000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.685241</v>
+        <v>7.6852410000000004</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.180000</v>
+        <v>-138.18</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>27677.826715</v>
+        <v>27677.826714999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.688285</v>
+        <v>7.6882849999999996</v>
       </c>
       <c r="BF11" s="1">
-        <v>1297.460000</v>
+        <v>1297.46</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.951000</v>
+        <v>-220.95099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>27688.539805</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.691261</v>
+        <v>7.6912609999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1366.970000</v>
+        <v>1366.97</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.156000</v>
+        <v>-359.15600000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>27699.464191</v>
+        <v>27699.464190999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.694296</v>
+        <v>7.6942959999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1481.980000</v>
+        <v>1481.98</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-583.978000</v>
+        <v>-583.97799999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>27710.222448</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.697284</v>
+        <v>7.6972839999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1614.360000</v>
+        <v>1614.36</v>
       </c>
       <c r="BV11" s="1">
-        <v>-838.049000</v>
+        <v>-838.04899999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>27721.856612</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.700516</v>
+        <v>7.7005160000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1767.450000</v>
+        <v>1767.45</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1113.520000</v>
+        <v>-1113.52</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>27733.779409</v>
+        <v>27733.779408999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.703828</v>
+        <v>7.7038279999999997</v>
       </c>
       <c r="CE11" s="1">
-        <v>2187.160000</v>
+        <v>2187.16</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1785.790000</v>
+        <v>-1785.79</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>27561.409717</v>
+        <v>27561.409716999999</v>
       </c>
       <c r="B12" s="1">
-        <v>7.655947</v>
+        <v>7.6559470000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.410000</v>
+        <v>1149.4100000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.047000</v>
+        <v>-261.04700000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>27571.840087</v>
       </c>
       <c r="G12" s="1">
-        <v>7.658844</v>
+        <v>7.6588440000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.970000</v>
+        <v>1170.97</v>
       </c>
       <c r="I12" s="1">
-        <v>-219.473000</v>
+        <v>-219.47300000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>27582.306665</v>
       </c>
       <c r="L12" s="1">
-        <v>7.661752</v>
+        <v>7.6617519999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1198.420000</v>
+        <v>1198.42</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.737000</v>
+        <v>-151.73699999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>27592.859084</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.664683</v>
+        <v>7.6646830000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.362000</v>
+        <v>-129.36199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>27603.461565</v>
+        <v>27603.461565000001</v>
       </c>
       <c r="V12" s="1">
-        <v>7.667628</v>
+        <v>7.6676279999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>1213.300000</v>
+        <v>1213.3</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.992000</v>
+        <v>-107.992</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>27613.647378</v>
+        <v>27613.647378000001</v>
       </c>
       <c r="AA12" s="1">
         <v>7.670458</v>
       </c>
       <c r="AB12" s="1">
-        <v>1220.660000</v>
+        <v>1220.6600000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.614600</v>
+        <v>-90.614599999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>27623.876866</v>
+        <v>27623.876865999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.673299</v>
+        <v>7.6732990000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1225.110000</v>
+        <v>1225.1099999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.087500</v>
+        <v>-86.087500000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>27634.090517</v>
+        <v>27634.090517000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.676136</v>
+        <v>7.6761359999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>1232.030000</v>
+        <v>1232.03</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.288700</v>
+        <v>-89.288700000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>27644.841767</v>
+        <v>27644.841767000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.679123</v>
+        <v>7.6791229999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.238000</v>
+        <v>-101.238</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>27655.912971</v>
+        <v>27655.912971000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.682198</v>
+        <v>7.6821979999999996</v>
       </c>
       <c r="AV12" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.575000</v>
+        <v>-120.575</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>27667.160249</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.685322</v>
+        <v>7.6853220000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.850000</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.177000</v>
+        <v>-138.17699999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>27678.116381</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.688366</v>
+        <v>7.6883660000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1297.450000</v>
+        <v>1297.45</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.964000</v>
+        <v>-220.964</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>27688.926684</v>
+        <v>27688.926683999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.691369</v>
+        <v>7.6913689999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1367.040000</v>
+        <v>1367.04</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.174000</v>
+        <v>-359.17399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>27699.860992</v>
+        <v>27699.860992000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.694406</v>
+        <v>7.6944059999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1481.980000</v>
+        <v>1481.98</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-584.012000</v>
+        <v>-584.01199999999994</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>27710.652448</v>
+        <v>27710.652448000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.697403</v>
+        <v>7.6974030000000004</v>
       </c>
       <c r="BU12" s="1">
-        <v>1614.180000</v>
+        <v>1614.18</v>
       </c>
       <c r="BV12" s="1">
-        <v>-837.848000</v>
+        <v>-837.84799999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>27722.282640</v>
+        <v>27722.282640000001</v>
       </c>
       <c r="BY12" s="1">
         <v>7.700634</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1767.430000</v>
+        <v>1767.43</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1113.670000</v>
+        <v>-1113.67</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>27734.320576</v>
+        <v>27734.320575999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.703978</v>
+        <v>7.7039780000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>2187.950000</v>
+        <v>2187.9499999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1783.530000</v>
+        <v>-1783.53</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>27561.752454</v>
+        <v>27561.752454000001</v>
       </c>
       <c r="B13" s="1">
-        <v>7.656042</v>
+        <v>7.6560420000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.050000</v>
+        <v>1149.05</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.322000</v>
+        <v>-261.322</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>27572.498279</v>
+        <v>27572.498278999999</v>
       </c>
       <c r="G13" s="1">
         <v>7.659027</v>
       </c>
       <c r="H13" s="1">
-        <v>1170.590000</v>
+        <v>1170.5899999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.835000</v>
+        <v>-218.83500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>27582.965850</v>
+        <v>27582.965850000001</v>
       </c>
       <c r="L13" s="1">
-        <v>7.661935</v>
+        <v>7.6619349999999997</v>
       </c>
       <c r="M13" s="1">
-        <v>1198.400000</v>
+        <v>1198.4000000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.667000</v>
+        <v>-151.667</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>27593.240011</v>
+        <v>27593.240011000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.664789</v>
+        <v>7.6647889999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1206.010000</v>
+        <v>1206.01</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.328000</v>
+        <v>-129.328</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>27603.804296</v>
+        <v>27603.804295999998</v>
       </c>
       <c r="V13" s="1">
-        <v>7.667723</v>
+        <v>7.6677229999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>1213.200000</v>
+        <v>1213.2</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.112000</v>
+        <v>-108.11199999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>27613.993585</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.670554</v>
+        <v>7.6705540000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1220.750000</v>
+        <v>1220.75</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.708900</v>
+        <v>-90.7089</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>27624.223570</v>
+        <v>27624.223569999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.673395</v>
+        <v>7.6733950000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>1225.140000</v>
+        <v>1225.1400000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.088900</v>
+        <v>-86.088899999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>27634.507125</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.676252</v>
+        <v>7.6762519999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1232.020000</v>
+        <v>1232.02</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.296700</v>
+        <v>-89.296700000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>27645.257911</v>
+        <v>27645.257911000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.679238</v>
+        <v>7.6792379999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1239.800000</v>
+        <v>1239.8</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.244000</v>
+        <v>-101.244</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>27656.216062</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.682282</v>
+        <v>7.6822819999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1249.570000</v>
+        <v>1249.57</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.589000</v>
+        <v>-120.589</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>27667.520873</v>
+        <v>27667.520873000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>7.685422</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.870000</v>
+        <v>1257.8699999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.165000</v>
+        <v>-138.16499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>27678.481469</v>
+        <v>27678.481468999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.688467</v>
+        <v>7.6884670000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1297.430000</v>
+        <v>1297.43</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.963000</v>
+        <v>-220.96299999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>27689.304142</v>
+        <v>27689.304142000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.691473</v>
+        <v>7.6914730000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.207000</v>
+        <v>-359.20699999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>27700.293502</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.694526</v>
+        <v>7.6945259999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1482.000000</v>
+        <v>1482</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-584.021000</v>
+        <v>-584.02099999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>27711.080000</v>
+        <v>27711.08</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.697522</v>
+        <v>7.6975220000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1614.200000</v>
+        <v>1614.2</v>
       </c>
       <c r="BV13" s="1">
-        <v>-837.653000</v>
+        <v>-837.65300000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>27722.721634</v>
+        <v>27722.721634000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.700756</v>
+        <v>7.7007560000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1767.530000</v>
+        <v>1767.53</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1113.520000</v>
+        <v>-1113.52</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>27734.858704</v>
+        <v>27734.858703999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.704127</v>
+        <v>7.7041269999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>2185.870000</v>
+        <v>2185.87</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1784.270000</v>
+        <v>-1784.27</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>27562.412630</v>
+        <v>27562.412629999999</v>
       </c>
       <c r="B14" s="1">
-        <v>7.656226</v>
+        <v>7.6562260000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.020000</v>
+        <v>1149.02</v>
       </c>
       <c r="D14" s="1">
-        <v>-260.935000</v>
+        <v>-260.935</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>27572.871308</v>
+        <v>27572.871308000002</v>
       </c>
       <c r="G14" s="1">
-        <v>7.659131</v>
+        <v>7.6591310000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>1171.140000</v>
+        <v>1171.1400000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-218.362000</v>
+        <v>-218.36199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>27583.340835</v>
+        <v>27583.340834999999</v>
       </c>
       <c r="L14" s="1">
         <v>7.662039</v>
       </c>
       <c r="M14" s="1">
-        <v>1198.680000</v>
+        <v>1198.68</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.696000</v>
+        <v>-151.696</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>27593.591642</v>
+        <v>27593.591641999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.664887</v>
+        <v>7.6648870000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1206.040000</v>
+        <v>1206.04</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.278000</v>
+        <v>-129.27799999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>27604.149486</v>
+        <v>27604.149485999998</v>
       </c>
       <c r="V14" s="1">
-        <v>7.667819</v>
+        <v>7.6678189999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>1213.260000</v>
+        <v>1213.26</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.075000</v>
+        <v>-108.075</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>27614.344255</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.670651</v>
+        <v>7.6706510000000003</v>
       </c>
       <c r="AB14" s="1">
-        <v>1220.700000</v>
+        <v>1220.7</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.835800</v>
+        <v>-90.835800000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>27624.646162</v>
+        <v>27624.646162000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.673513</v>
+        <v>7.6735129999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1225.070000</v>
+        <v>1225.07</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.098200</v>
+        <v>-86.098200000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>27634.796790</v>
+        <v>27634.79679</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.676332</v>
+        <v>7.6763320000000004</v>
       </c>
       <c r="AL14" s="1">
-        <v>1232.050000</v>
+        <v>1232.05</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.308600</v>
+        <v>-89.308599999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>27645.562456</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.679323</v>
+        <v>7.6793230000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1239.770000</v>
+        <v>1239.77</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.218000</v>
+        <v>-101.218</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>27656.578632</v>
+        <v>27656.578632000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.682383</v>
+        <v>7.6823829999999997</v>
       </c>
       <c r="AV14" s="1">
-        <v>1249.570000</v>
+        <v>1249.57</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.607000</v>
+        <v>-120.607</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>27667.878989</v>
+        <v>27667.878989000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.685522</v>
+        <v>7.6855219999999997</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.162000</v>
+        <v>-138.16200000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>27678.842058</v>
+        <v>27678.842057999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.688567</v>
+        <v>7.6885669999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.450000</v>
+        <v>1297.45</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.951000</v>
+        <v>-220.95099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>27690.055085</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.691682</v>
+        <v>7.6916820000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.188000</v>
+        <v>-359.18799999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>27700.679885</v>
+        <v>27700.679885000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.694633</v>
+        <v>7.6946329999999996</v>
       </c>
       <c r="BP14" s="1">
-        <v>1481.990000</v>
+        <v>1481.99</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-584.004000</v>
+        <v>-584.00400000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>27711.488208</v>
+        <v>27711.488207999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.697636</v>
+        <v>7.6976360000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1614.180000</v>
+        <v>1614.18</v>
       </c>
       <c r="BV14" s="1">
-        <v>-837.389000</v>
+        <v>-837.38900000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>27723.142242</v>
+        <v>27723.142242000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.700873</v>
+        <v>7.7008729999999996</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1767.590000</v>
+        <v>1767.59</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1113.610000</v>
+        <v>-1113.6099999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>27735.719265</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.704366</v>
+        <v>7.7043660000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>2188.150000</v>
+        <v>2188.15</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1783.170000</v>
+        <v>-1783.17</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>27562.778181</v>
+        <v>27562.778181000001</v>
       </c>
       <c r="B15" s="1">
-        <v>7.656327</v>
+        <v>7.6563270000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1148.820000</v>
+        <v>1148.82</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.038000</v>
+        <v>-261.03800000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>27573.216486</v>
+        <v>27573.216486000001</v>
       </c>
       <c r="G15" s="1">
-        <v>7.659227</v>
+        <v>7.6592269999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.540000</v>
+        <v>1170.54</v>
       </c>
       <c r="I15" s="1">
-        <v>-219.075000</v>
+        <v>-219.07499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>27583.687528</v>
+        <v>27583.687527999999</v>
       </c>
       <c r="L15" s="1">
-        <v>7.662135</v>
+        <v>7.6621350000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1198.300000</v>
+        <v>1198.3</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.880000</v>
+        <v>-151.88</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>27593.942842</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.664984</v>
+        <v>7.6649839999999996</v>
       </c>
       <c r="R15" s="1">
-        <v>1206.100000</v>
+        <v>1206.0999999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.288000</v>
+        <v>-129.28800000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>27604.565132</v>
       </c>
       <c r="V15" s="1">
-        <v>7.667935</v>
+        <v>7.6679349999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1213.290000</v>
+        <v>1213.29</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.999000</v>
+        <v>-107.999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>27614.778255</v>
+        <v>27614.778255000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.670772</v>
+        <v>7.6707720000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>1220.600000</v>
+        <v>1220.5999999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.649900</v>
+        <v>-90.649900000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>27624.927393</v>
+        <v>27624.927393000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.673591</v>
+        <v>7.6735910000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1225.090000</v>
+        <v>1225.0899999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.117500</v>
+        <v>-86.117500000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>27635.144516</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.676429</v>
+        <v>7.6764289999999997</v>
       </c>
       <c r="AL15" s="1">
-        <v>1232.030000</v>
+        <v>1232.03</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.315200</v>
+        <v>-89.315200000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>27645.923542</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.679423</v>
+        <v>7.6794229999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.247000</v>
+        <v>-101.247</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>27656.944183</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.682484</v>
+        <v>7.6824839999999996</v>
       </c>
       <c r="AV15" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.601000</v>
+        <v>-120.601</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>27668.595209</v>
+        <v>27668.595208999999</v>
       </c>
       <c r="AZ15" s="1">
         <v>7.685721</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.180000</v>
+        <v>-138.18</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>27679.565700</v>
+        <v>27679.565699999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.688768</v>
+        <v>7.6887679999999996</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.460000</v>
+        <v>1297.46</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.977000</v>
+        <v>-220.977</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>27690.429595</v>
+        <v>27690.429595000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.691786</v>
+        <v>7.6917859999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1367.020000</v>
+        <v>1367.02</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.165000</v>
+        <v>-359.16500000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>27701.103005</v>
+        <v>27701.103005000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.694751</v>
+        <v>7.6947510000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1481.970000</v>
+        <v>1481.97</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-584.031000</v>
+        <v>-584.03099999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>27711.921249</v>
+        <v>27711.921248999999</v>
       </c>
       <c r="BT15" s="1">
         <v>7.697756</v>
       </c>
       <c r="BU15" s="1">
-        <v>1614.250000</v>
+        <v>1614.25</v>
       </c>
       <c r="BV15" s="1">
-        <v>-837.209000</v>
+        <v>-837.20899999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>27723.889679</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.701080</v>
+        <v>7.7010800000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1767.480000</v>
+        <v>1767.48</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1113.450000</v>
+        <v>-1113.45</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>27735.937503</v>
+        <v>27735.937503000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.704427</v>
+        <v>7.7044269999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2188.420000</v>
+        <v>2188.42</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1783.290000</v>
+        <v>-1783.29</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>27563.124387</v>
       </c>
       <c r="B16" s="1">
-        <v>7.656423</v>
+        <v>7.6564230000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.050000</v>
+        <v>1149.05</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.079000</v>
+        <v>-261.07900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>27573.562198</v>
       </c>
       <c r="G16" s="1">
-        <v>7.659323</v>
+        <v>7.6593229999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>1171.240000</v>
+        <v>1171.24</v>
       </c>
       <c r="I16" s="1">
-        <v>-218.295000</v>
+        <v>-218.29499999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>27584.100696</v>
+        <v>27584.100696000001</v>
       </c>
       <c r="L16" s="1">
-        <v>7.662250</v>
+        <v>7.6622500000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1198.290000</v>
+        <v>1198.29</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.398000</v>
+        <v>-151.398</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>27594.366394</v>
+        <v>27594.366394000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.665102</v>
+        <v>7.6651020000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1206.120000</v>
+        <v>1206.1199999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.271000</v>
+        <v>-129.27099999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>27604.845901</v>
+        <v>27604.845901000001</v>
       </c>
       <c r="V16" s="1">
-        <v>7.668013</v>
+        <v>7.6680130000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1213.260000</v>
+        <v>1213.26</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.110000</v>
+        <v>-108.11</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>27615.056016</v>
+        <v>27615.056015999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.670849</v>
+        <v>7.6708489999999996</v>
       </c>
       <c r="AB16" s="1">
-        <v>1220.640000</v>
+        <v>1220.6400000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.814900</v>
+        <v>-90.814899999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>27625.271121</v>
+        <v>27625.271121000002</v>
       </c>
       <c r="AF16" s="1">
         <v>7.673686</v>
       </c>
       <c r="AG16" s="1">
-        <v>1225.070000</v>
+        <v>1225.07</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.107000</v>
+        <v>-86.106999999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>27635.493171</v>
+        <v>27635.493170999998</v>
       </c>
       <c r="AK16" s="1">
         <v>7.676526</v>
       </c>
       <c r="AL16" s="1">
-        <v>1232.060000</v>
+        <v>1232.06</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.326100</v>
+        <v>-89.326099999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>27646.284630</v>
+        <v>27646.284629999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.679524</v>
+        <v>7.6795239999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1239.790000</v>
+        <v>1239.79</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.241000</v>
+        <v>-101.241</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>27657.673766</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.682687</v>
+        <v>7.6826869999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>1249.580000</v>
+        <v>1249.58</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.615000</v>
+        <v>-120.61499999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>27668.956759</v>
+        <v>27668.956759000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.685821</v>
+        <v>7.6858209999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.174000</v>
+        <v>-138.17400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>27679.925323</v>
+        <v>27679.925322999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.688868</v>
+        <v>7.6888680000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1297.420000</v>
+        <v>1297.42</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.955000</v>
+        <v>-220.95500000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>27690.805530</v>
+        <v>27690.805530000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.691890</v>
+        <v>7.6918899999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1366.970000</v>
+        <v>1366.97</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.176000</v>
+        <v>-359.17599999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>27701.803820</v>
+        <v>27701.803820000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.694946</v>
+        <v>7.6949459999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1482.020000</v>
+        <v>1482.02</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-583.962000</v>
+        <v>-583.96199999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>27712.662767</v>
+        <v>27712.662767000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.697962</v>
+        <v>7.6979620000000004</v>
       </c>
       <c r="BU16" s="1">
-        <v>1614.560000</v>
+        <v>1614.56</v>
       </c>
       <c r="BV16" s="1">
-        <v>-837.171000</v>
+        <v>-837.17100000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>27724.046414</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.701124</v>
+        <v>7.7011240000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1767.500000</v>
+        <v>1767.5</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1113.580000</v>
+        <v>-1113.58</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>27736.456814</v>
+        <v>27736.456814000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.704571</v>
+        <v>7.7045709999999996</v>
       </c>
       <c r="CE16" s="1">
-        <v>2186.250000</v>
+        <v>2186.25</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1783.270000</v>
+        <v>-1783.27</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>27563.464148</v>
+        <v>27563.464147999999</v>
       </c>
       <c r="B17" s="1">
-        <v>7.656518</v>
+        <v>7.6565180000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1148.900000</v>
+        <v>1148.9000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.210000</v>
+        <v>-261.20999999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>27573.989253</v>
       </c>
       <c r="G17" s="1">
-        <v>7.659441</v>
+        <v>7.6594410000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1170.880000</v>
+        <v>1170.8800000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-219.436000</v>
+        <v>-219.43600000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>27584.381927</v>
+        <v>27584.381926999999</v>
       </c>
       <c r="L17" s="1">
-        <v>7.662328</v>
+        <v>7.6623279999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>1198.110000</v>
+        <v>1198.1099999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.528000</v>
+        <v>-151.52799999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>27594.643691</v>
+        <v>27594.643691000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.665179</v>
+        <v>7.6651790000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1206.110000</v>
+        <v>1206.1099999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.301000</v>
+        <v>-129.30099999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>27605.183643</v>
@@ -4396,829 +4812,829 @@
         <v>7.668107</v>
       </c>
       <c r="W17" s="1">
-        <v>1213.260000</v>
+        <v>1213.26</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.046000</v>
+        <v>-108.04600000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>27615.403252</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.670945</v>
+        <v>7.6709449999999997</v>
       </c>
       <c r="AB17" s="1">
-        <v>1220.400000</v>
+        <v>1220.4000000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.872900</v>
+        <v>-90.872900000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>27625.611873</v>
+        <v>27625.611873000002</v>
       </c>
       <c r="AF17" s="1">
         <v>7.673781</v>
       </c>
       <c r="AG17" s="1">
-        <v>1225.140000</v>
+        <v>1225.1400000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.044700</v>
+        <v>-86.044700000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>27636.191042</v>
+        <v>27636.191041999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.676720</v>
+        <v>7.6767200000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>1232.020000</v>
+        <v>1232.02</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.354800</v>
+        <v>-89.354799999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>27647.008790</v>
+        <v>27647.00879</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.679725</v>
+        <v>7.6797250000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1239.800000</v>
+        <v>1239.8</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.238000</v>
+        <v>-101.238</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>27658.062630</v>
+        <v>27658.06263</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.682795</v>
+        <v>7.6827949999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>1249.560000</v>
+        <v>1249.56</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.606000</v>
+        <v>-120.60599999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>27669.314870</v>
+        <v>27669.314869999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.685921</v>
+        <v>7.6859209999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.850000</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.187000</v>
+        <v>-138.18700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>27680.277448</v>
+        <v>27680.277448000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.688966</v>
+        <v>7.6889659999999997</v>
       </c>
       <c r="BF17" s="1">
-        <v>1297.450000</v>
+        <v>1297.45</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.968000</v>
+        <v>-220.96799999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>27691.491029</v>
+        <v>27691.491029000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.692081</v>
+        <v>7.6920809999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1366.960000</v>
+        <v>1366.96</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.205000</v>
+        <v>-359.20499999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>27701.921371</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.694978</v>
+        <v>7.6949779999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1482.020000</v>
+        <v>1482.02</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-583.957000</v>
+        <v>-583.95699999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>27712.795165</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.697999</v>
+        <v>7.6979990000000003</v>
       </c>
       <c r="BU17" s="1">
-        <v>1614.790000</v>
+        <v>1614.79</v>
       </c>
       <c r="BV17" s="1">
-        <v>-837.060000</v>
+        <v>-837.06</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>27724.471983</v>
+        <v>27724.471982999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.701242</v>
+        <v>7.7012419999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1767.490000</v>
+        <v>1767.49</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1113.500000</v>
+        <v>-1113.5</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>27736.974173</v>
+        <v>27736.974172999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.704715</v>
+        <v>7.7047150000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2186.970000</v>
+        <v>2186.9699999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1783.230000</v>
+        <v>-1783.23</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>27563.883762</v>
+        <v>27563.883762000001</v>
       </c>
       <c r="B18" s="1">
-        <v>7.656634</v>
+        <v>7.6566340000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.930000</v>
+        <v>1148.93</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.064000</v>
+        <v>-261.06400000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>27574.251636</v>
+        <v>27574.251636000001</v>
       </c>
       <c r="G18" s="1">
-        <v>7.659514</v>
+        <v>7.6595139999999997</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.220000</v>
+        <v>1170.22</v>
       </c>
       <c r="I18" s="1">
-        <v>-219.159000</v>
+        <v>-219.15899999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>27584.726151</v>
+        <v>27584.726150999999</v>
       </c>
       <c r="L18" s="1">
-        <v>7.662424</v>
+        <v>7.6624239999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>1198.290000</v>
+        <v>1198.29</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.884000</v>
+        <v>-151.88399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>27594.991850</v>
+        <v>27594.991849999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.665276</v>
+        <v>7.6652760000000004</v>
       </c>
       <c r="R18" s="1">
-        <v>1206.120000</v>
+        <v>1206.1199999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.396000</v>
+        <v>-129.39599999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>27605.534347</v>
+        <v>27605.534347000001</v>
       </c>
       <c r="V18" s="1">
-        <v>7.668204</v>
+        <v>7.6682040000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1213.220000</v>
+        <v>1213.22</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.141000</v>
+        <v>-108.14100000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>27616.080750</v>
+        <v>27616.080750000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.671134</v>
+        <v>7.6711340000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>1220.620000</v>
+        <v>1220.6199999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.857900</v>
+        <v>-90.857900000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>27626.299855</v>
+        <v>27626.299855000001</v>
       </c>
       <c r="AF18" s="1">
         <v>7.673972</v>
       </c>
       <c r="AG18" s="1">
-        <v>1225.070000</v>
+        <v>1225.07</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.125100</v>
+        <v>-86.125100000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>27636.539234</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.676816</v>
+        <v>7.6768159999999996</v>
       </c>
       <c r="AL18" s="1">
-        <v>1232.000000</v>
+        <v>1232</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.362000</v>
+        <v>-89.361999999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>27647.389716</v>
+        <v>27647.389716000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.679830</v>
+        <v>7.6798299999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.209000</v>
+        <v>-101.209</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>27658.426722</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.682896</v>
+        <v>7.6828960000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>1249.570000</v>
+        <v>1249.57</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.601000</v>
+        <v>-120.601</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>27669.985494</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.686107</v>
+        <v>7.6861069999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.860000</v>
+        <v>1257.8599999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.210000</v>
+        <v>-138.21</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>27681.000122</v>
+        <v>27681.000122000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.689167</v>
+        <v>7.6891670000000003</v>
       </c>
       <c r="BF18" s="1">
-        <v>1297.460000</v>
+        <v>1297.46</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.955000</v>
+        <v>-220.95500000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>27691.929497</v>
+        <v>27691.929497000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.692203</v>
+        <v>7.6922030000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.158000</v>
+        <v>-359.15800000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>27702.344956</v>
+        <v>27702.344956000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.695096</v>
+        <v>7.6950960000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1482.030000</v>
+        <v>1482.03</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-584.047000</v>
+        <v>-584.04700000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>27713.197150</v>
+        <v>27713.19715</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.698110</v>
+        <v>7.6981099999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1615.080000</v>
+        <v>1615.08</v>
       </c>
       <c r="BV18" s="1">
-        <v>-837.299000</v>
+        <v>-837.29899999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>27724.890109</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.701358</v>
+        <v>7.7013579999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1767.500000</v>
+        <v>1767.5</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1113.560000</v>
+        <v>-1113.56</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>27737.527678</v>
+        <v>27737.527677999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.704869</v>
+        <v>7.7048690000000004</v>
       </c>
       <c r="CE18" s="1">
-        <v>2188.250000</v>
+        <v>2188.25</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1784.070000</v>
+        <v>-1784.07</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>27564.162018</v>
+        <v>27564.162017999999</v>
       </c>
       <c r="B19" s="1">
-        <v>7.656712</v>
+        <v>7.6567119999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>1148.660000</v>
+        <v>1148.6600000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-260.786000</v>
+        <v>-260.786</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>27574.597347</v>
+        <v>27574.597346999999</v>
       </c>
       <c r="G19" s="1">
-        <v>7.659610</v>
+        <v>7.6596099999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1170.350000</v>
+        <v>1170.3499999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-218.993000</v>
+        <v>-218.99299999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>27585.072358</v>
+        <v>27585.072358000001</v>
       </c>
       <c r="L19" s="1">
-        <v>7.662520</v>
+        <v>7.6625199999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1198.280000</v>
+        <v>1198.28</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.531000</v>
+        <v>-151.53100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>27595.343016</v>
+        <v>27595.343015999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.665373</v>
+        <v>7.6653729999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.346000</v>
+        <v>-129.346</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>27606.222266</v>
+        <v>27606.222266000001</v>
       </c>
       <c r="V19" s="1">
-        <v>7.668395</v>
+        <v>7.6683950000000003</v>
       </c>
       <c r="W19" s="1">
-        <v>1213.240000</v>
+        <v>1213.24</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.048000</v>
+        <v>-108.048</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>27616.454733</v>
+        <v>27616.454732999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.671237</v>
+        <v>7.6712369999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>1220.670000</v>
+        <v>1220.67</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.765100</v>
+        <v>-90.765100000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>27626.643056</v>
+        <v>27626.643056000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.674068</v>
+        <v>7.6740680000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1225.080000</v>
+        <v>1225.08</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.068100</v>
+        <v>-86.068100000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>27636.888914</v>
+        <v>27636.888913999999</v>
       </c>
       <c r="AK19" s="1">
         <v>7.676914</v>
       </c>
       <c r="AL19" s="1">
-        <v>1232.030000</v>
+        <v>1232.03</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.316000</v>
+        <v>-89.316000000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>27647.755763</v>
+        <v>27647.755763000001</v>
       </c>
       <c r="AP19" s="1">
         <v>7.679932</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1239.830000</v>
+        <v>1239.83</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.188000</v>
+        <v>-101.188</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>27659.107700</v>
+        <v>27659.1077</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.683085</v>
+        <v>7.6830850000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1249.540000</v>
+        <v>1249.54</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.616000</v>
+        <v>-120.616</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>27670.420496</v>
+        <v>27670.420495999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.686228</v>
+        <v>7.6862279999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.190000</v>
+        <v>-138.19</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>27681.398902</v>
+        <v>27681.398902000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.689277</v>
+        <v>7.6892769999999997</v>
       </c>
       <c r="BF19" s="1">
-        <v>1297.440000</v>
+        <v>1297.44</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.945000</v>
+        <v>-220.94499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>27692.304937</v>
+        <v>27692.304937000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.692307</v>
+        <v>7.6923069999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1366.970000</v>
+        <v>1366.97</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.182000</v>
+        <v>-359.18200000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>27702.742781</v>
+        <v>27702.742781000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.695206</v>
+        <v>7.6952059999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1481.960000</v>
+        <v>1481.96</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-584.017000</v>
+        <v>-584.01700000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>27713.661677</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.698239</v>
+        <v>7.6982390000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1615.160000</v>
+        <v>1615.16</v>
       </c>
       <c r="BV19" s="1">
-        <v>-837.757000</v>
+        <v>-837.75699999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>27725.334562</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.701482</v>
+        <v>7.7014820000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1767.420000</v>
+        <v>1767.42</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1113.550000</v>
+        <v>-1113.55</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>27738.055458</v>
+        <v>27738.055457999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.705015</v>
+        <v>7.7050150000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>2186.840000</v>
+        <v>2186.84</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1783.390000</v>
+        <v>-1783.39</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>27564.503793</v>
       </c>
       <c r="B20" s="1">
-        <v>7.656807</v>
+        <v>7.6568069999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>1148.850000</v>
+        <v>1148.8499999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.203000</v>
+        <v>-261.20299999999997</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>27574.940084</v>
+        <v>27574.940084000002</v>
       </c>
       <c r="G20" s="1">
-        <v>7.659706</v>
+        <v>7.6597059999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.780000</v>
+        <v>1170.78</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.908000</v>
+        <v>-218.90799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>27585.769237</v>
       </c>
       <c r="L20" s="1">
-        <v>7.662714</v>
+        <v>7.6627140000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1198.460000</v>
+        <v>1198.46</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.761000</v>
+        <v>-151.761</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>27596.039896</v>
+        <v>27596.039895999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.665567</v>
+        <v>7.6655670000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1206.050000</v>
+        <v>1206.05</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.301000</v>
+        <v>-129.30099999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>27606.565525</v>
+        <v>27606.565525000002</v>
       </c>
       <c r="V20" s="1">
-        <v>7.668490</v>
+        <v>7.6684900000000003</v>
       </c>
       <c r="W20" s="1">
-        <v>1213.260000</v>
+        <v>1213.26</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.111000</v>
+        <v>-108.111</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>27616.803917</v>
+        <v>27616.803917000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.671334</v>
+        <v>7.6713339999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1220.680000</v>
+        <v>1220.68</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.769400</v>
+        <v>-90.769400000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>27626.989296</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.674164</v>
+        <v>7.6741640000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1225.120000</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.072300</v>
+        <v>-86.072299999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>27637.551569</v>
+        <v>27637.551568999999</v>
       </c>
       <c r="AK20" s="1">
         <v>7.677098</v>
       </c>
       <c r="AL20" s="1">
-        <v>1232.010000</v>
+        <v>1232.01</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.339000</v>
+        <v>-89.338999999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>27648.509682</v>
@@ -5227,58 +5643,58 @@
         <v>7.680142</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.242000</v>
+        <v>-101.242</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>27659.555126</v>
+        <v>27659.555125999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.683210</v>
+        <v>7.6832099999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1249.570000</v>
+        <v>1249.57</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.637000</v>
+        <v>-120.637</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>27670.777076</v>
+        <v>27670.777075999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.686327</v>
+        <v>7.6863270000000004</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.850000</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.201000</v>
+        <v>-138.20099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>27681.756519</v>
+        <v>27681.756518999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.689377</v>
+        <v>7.6893770000000004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1297.440000</v>
+        <v>1297.44</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.983000</v>
+        <v>-220.983</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>27692.683385</v>
@@ -5287,1343 +5703,1343 @@
         <v>7.692412</v>
       </c>
       <c r="BK20" s="1">
-        <v>1366.980000</v>
+        <v>1366.98</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.152000</v>
+        <v>-359.15199999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>27703.163861</v>
+        <v>27703.163861000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.695323</v>
+        <v>7.6953230000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1481.950000</v>
+        <v>1481.95</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-583.991000</v>
+        <v>-583.99099999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>27714.462716</v>
+        <v>27714.462716000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.698462</v>
+        <v>7.6984620000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1615.130000</v>
+        <v>1615.13</v>
       </c>
       <c r="BV20" s="1">
-        <v>-837.835000</v>
+        <v>-837.83500000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>27725.758604</v>
+        <v>27725.758603999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.701600</v>
+        <v>7.7016</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1767.520000</v>
+        <v>1767.52</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1113.620000</v>
+        <v>-1113.6199999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>27738.574767</v>
+        <v>27738.574766999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.705160</v>
+        <v>7.7051600000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>2186.230000</v>
+        <v>2186.23</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1784.970000</v>
+        <v>-1784.97</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>27564.843837</v>
       </c>
       <c r="B21" s="1">
-        <v>7.656901</v>
+        <v>7.6569010000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>1148.770000</v>
+        <v>1148.77</v>
       </c>
       <c r="D21" s="1">
-        <v>-260.829000</v>
+        <v>-260.82900000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>27575.631048</v>
+        <v>27575.631047999999</v>
       </c>
       <c r="G21" s="1">
-        <v>7.659898</v>
+        <v>7.6598980000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1170.180000</v>
+        <v>1170.18</v>
       </c>
       <c r="I21" s="1">
-        <v>-219.257000</v>
+        <v>-219.25700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>27586.116933</v>
+        <v>27586.116933000001</v>
       </c>
       <c r="L21" s="1">
-        <v>7.662810</v>
+        <v>7.6628100000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1198.340000</v>
+        <v>1198.3399999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.754000</v>
+        <v>-151.75399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>27596.391063</v>
+        <v>27596.391062999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.665664</v>
+        <v>7.6656639999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>1206.130000</v>
+        <v>1206.1300000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.279000</v>
+        <v>-129.279</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>27606.907245</v>
+        <v>27606.907244999999</v>
       </c>
       <c r="V21" s="1">
-        <v>7.668585</v>
+        <v>7.6685850000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1213.290000</v>
+        <v>1213.29</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.081000</v>
+        <v>-108.081</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>27617.458635</v>
+        <v>27617.458634999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.671516</v>
+        <v>7.6715159999999996</v>
       </c>
       <c r="AB21" s="1">
-        <v>1220.660000</v>
+        <v>1220.6600000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.666800</v>
+        <v>-90.666799999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>27627.654894</v>
+        <v>27627.654893999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.674349</v>
+        <v>7.6743490000000003</v>
       </c>
       <c r="AG21" s="1">
-        <v>1225.120000</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.069100</v>
+        <v>-86.069100000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>27637.935472</v>
+        <v>27637.935472000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.677204</v>
+        <v>7.6772039999999997</v>
       </c>
       <c r="AL21" s="1">
-        <v>1232.020000</v>
+        <v>1232.02</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.351500</v>
+        <v>-89.351500000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>27648.826659</v>
+        <v>27648.826658999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.680230</v>
+        <v>7.6802299999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1239.790000</v>
+        <v>1239.79</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.211000</v>
+        <v>-101.211</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>27659.923124</v>
+        <v>27659.923124000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.683312</v>
+        <v>7.6833119999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1249.560000</v>
+        <v>1249.56</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.630000</v>
+        <v>-120.63</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>27671.138661</v>
+        <v>27671.138661000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.686427</v>
+        <v>7.6864270000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.850000</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.176000</v>
+        <v>-138.17599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>27682.186054</v>
+        <v>27682.186054000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.689496</v>
+        <v>7.6894960000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1297.420000</v>
+        <v>1297.42</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.955000</v>
+        <v>-220.95500000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>27693.110935</v>
+        <v>27693.110935000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.692531</v>
+        <v>7.6925309999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1367.000000</v>
+        <v>1367</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.196000</v>
+        <v>-359.19600000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>27703.559690</v>
+        <v>27703.559689999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.695433</v>
+        <v>7.6954330000000004</v>
       </c>
       <c r="BP21" s="1">
-        <v>1482.010000</v>
+        <v>1482.01</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-583.989000</v>
+        <v>-583.98900000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>27714.897707</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.698583</v>
+        <v>7.6985830000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1614.910000</v>
+        <v>1614.91</v>
       </c>
       <c r="BV21" s="1">
-        <v>-837.993000</v>
+        <v>-837.99300000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>27726.181692</v>
+        <v>27726.181691999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.701717</v>
+        <v>7.7017170000000004</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1767.530000</v>
+        <v>1767.53</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1113.570000</v>
+        <v>-1113.57</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>27739.093050</v>
+        <v>27739.093049999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.705304</v>
+        <v>7.7053039999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2188.030000</v>
+        <v>2188.0300000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1785.400000</v>
+        <v>-1785.4</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>27565.529023</v>
+        <v>27565.529022999999</v>
       </c>
       <c r="B22" s="1">
-        <v>7.657091</v>
+        <v>7.6570910000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.110000</v>
+        <v>1149.1099999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-260.960000</v>
+        <v>-260.95999999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>27575.974242</v>
       </c>
       <c r="G22" s="1">
-        <v>7.659993</v>
+        <v>7.6599930000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1170.790000</v>
+        <v>1170.79</v>
       </c>
       <c r="I22" s="1">
-        <v>-219.076000</v>
+        <v>-219.07599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>27586.465124</v>
+        <v>27586.465123999998</v>
       </c>
       <c r="L22" s="1">
-        <v>7.662907</v>
+        <v>7.6629069999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>1198.700000</v>
+        <v>1198.7</v>
       </c>
       <c r="N22" s="1">
-        <v>-152.003000</v>
+        <v>-152.00299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>27596.736279</v>
+        <v>27596.736279000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.665760</v>
+        <v>7.6657599999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>1206.150000</v>
+        <v>1206.1500000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.274000</v>
+        <v>-129.274</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>27607.562953</v>
+        <v>27607.562953000001</v>
       </c>
       <c r="V22" s="1">
-        <v>7.668767</v>
+        <v>7.6687669999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1213.170000</v>
+        <v>1213.17</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.129000</v>
+        <v>-108.129</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>27617.849978</v>
+        <v>27617.849977999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.671625</v>
+        <v>7.6716249999999997</v>
       </c>
       <c r="AB22" s="1">
-        <v>1220.690000</v>
+        <v>1220.69</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.769600</v>
+        <v>-90.769599999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>27628.024415</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.674451</v>
+        <v>7.6744510000000004</v>
       </c>
       <c r="AG22" s="1">
-        <v>1225.100000</v>
+        <v>1225.0999999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.058500</v>
+        <v>-86.058499999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>27638.285151</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.677301</v>
+        <v>7.6773009999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1232.010000</v>
+        <v>1232.01</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.361000</v>
+        <v>-89.361000000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>27649.190722</v>
+        <v>27649.190721999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.680331</v>
+        <v>7.6803309999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.245000</v>
+        <v>-101.245</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>27660.285362</v>
+        <v>27660.285361999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.683413</v>
+        <v>7.6834129999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1249.570000</v>
+        <v>1249.57</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.635000</v>
+        <v>-120.63500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>27671.564228</v>
+        <v>27671.564227999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.686546</v>
+        <v>7.6865459999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.850000</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.178000</v>
+        <v>-138.178</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>27682.483291</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.689579</v>
+        <v>7.6895790000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1297.450000</v>
+        <v>1297.45</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.973000</v>
+        <v>-220.97300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>27693.438792</v>
+        <v>27693.438792000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.692622</v>
+        <v>7.6926220000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1366.960000</v>
+        <v>1366.96</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.138000</v>
+        <v>-359.13799999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>27703.981753</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.695550</v>
+        <v>7.6955499999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1482.030000</v>
+        <v>1482.03</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-584.046000</v>
+        <v>-584.04600000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>27715.308890</v>
+        <v>27715.30889</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.698697</v>
+        <v>7.6986970000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1614.350000</v>
+        <v>1614.35</v>
       </c>
       <c r="BV22" s="1">
-        <v>-838.086000</v>
+        <v>-838.08600000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>27726.628590</v>
+        <v>27726.62859</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.701841</v>
+        <v>7.7018409999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1767.530000</v>
+        <v>1767.53</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1113.520000</v>
+        <v>-1113.52</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>27739.612393</v>
+        <v>27739.612392999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.705448</v>
+        <v>7.7054479999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>2187.180000</v>
+        <v>2187.1799999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1785.990000</v>
+        <v>-1785.99</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>27565.872756</v>
+        <v>27565.872756000001</v>
       </c>
       <c r="B23" s="1">
-        <v>7.657187</v>
+        <v>7.6571870000000004</v>
       </c>
       <c r="C23" s="1">
-        <v>1148.830000</v>
+        <v>1148.83</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.138000</v>
+        <v>-261.13799999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>27576.326402</v>
+        <v>27576.326401999999</v>
       </c>
       <c r="G23" s="1">
-        <v>7.660091</v>
+        <v>7.6600910000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>1170.180000</v>
+        <v>1170.18</v>
       </c>
       <c r="I23" s="1">
-        <v>-218.704000</v>
+        <v>-218.70400000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>27587.122324</v>
       </c>
       <c r="L23" s="1">
-        <v>7.663090</v>
+        <v>7.6630900000000004</v>
       </c>
       <c r="M23" s="1">
-        <v>1198.230000</v>
+        <v>1198.23</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.949000</v>
+        <v>-151.94900000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>27597.388055</v>
+        <v>27597.388054999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.665941</v>
+        <v>7.6659410000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.347000</v>
+        <v>-129.34700000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>27607.938455</v>
       </c>
       <c r="V23" s="1">
-        <v>7.668872</v>
+        <v>7.6688720000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>1213.270000</v>
+        <v>1213.27</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.091000</v>
+        <v>-108.09099999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>27618.196682</v>
+        <v>27618.196682000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.671721</v>
+        <v>7.6717209999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1220.600000</v>
+        <v>1220.5999999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.587100</v>
+        <v>-90.587100000000007</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>27628.373102</v>
+        <v>27628.373102000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.674548</v>
+        <v>7.6745479999999997</v>
       </c>
       <c r="AG23" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.135300</v>
+        <v>-86.135300000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>27638.631359</v>
+        <v>27638.631358999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.677398</v>
+        <v>7.6773980000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1232.010000</v>
+        <v>1232.01</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.350100</v>
+        <v>-89.350099999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>27649.610833</v>
+        <v>27649.610832999999</v>
       </c>
       <c r="AP23" s="1">
         <v>7.680447</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1239.770000</v>
+        <v>1239.77</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.194000</v>
+        <v>-101.194</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>27660.706841</v>
+        <v>27660.706840999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.683530</v>
+        <v>7.6835300000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1249.580000</v>
+        <v>1249.58</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.603000</v>
+        <v>-120.60299999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>27671.853395</v>
+        <v>27671.853394999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.686626</v>
+        <v>7.6866260000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.830000</v>
+        <v>1257.83</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.177000</v>
+        <v>-138.17699999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>27682.843253</v>
+        <v>27682.843252999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.689679</v>
+        <v>7.6896789999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1297.440000</v>
+        <v>1297.44</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.959000</v>
+        <v>-220.959</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>27693.828646</v>
+        <v>27693.828646000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.692730</v>
+        <v>7.6927300000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1366.980000</v>
+        <v>1366.98</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.161000</v>
+        <v>-359.161</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>27704.379048</v>
+        <v>27704.379047999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.695661</v>
+        <v>7.6956610000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1481.980000</v>
+        <v>1481.98</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-584.007000</v>
+        <v>-584.00699999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>27716.140184</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.698928</v>
+        <v>7.6989280000000004</v>
       </c>
       <c r="BU23" s="1">
-        <v>1614.310000</v>
+        <v>1614.31</v>
       </c>
       <c r="BV23" s="1">
-        <v>-837.942000</v>
+        <v>-837.94200000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>27727.069531</v>
+        <v>27727.069531000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.701964</v>
+        <v>7.7019640000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1767.390000</v>
+        <v>1767.39</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1113.450000</v>
+        <v>-1113.45</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>27740.163456</v>
+        <v>27740.163455999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.705601</v>
+        <v>7.7056009999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>2185.730000</v>
+        <v>2185.73</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1784.320000</v>
+        <v>-1784.32</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>27566.214959</v>
+        <v>27566.214959000001</v>
       </c>
       <c r="B24" s="1">
-        <v>7.657282</v>
+        <v>7.6572820000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>1148.840000</v>
+        <v>1148.8399999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.190000</v>
+        <v>-261.19</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>27576.986577</v>
       </c>
       <c r="G24" s="1">
-        <v>7.660274</v>
+        <v>7.6602740000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.350000</v>
+        <v>1170.3499999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-218.988000</v>
+        <v>-218.988</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>27587.499779</v>
+        <v>27587.499779000002</v>
       </c>
       <c r="L24" s="1">
-        <v>7.663194</v>
+        <v>7.6631939999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1198.490000</v>
+        <v>1198.49</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.776000</v>
+        <v>-151.77600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>27597.783365</v>
+        <v>27597.783364999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.666051</v>
+        <v>7.6660510000000004</v>
       </c>
       <c r="R24" s="1">
-        <v>1206.050000</v>
+        <v>1206.05</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.300000</v>
+        <v>-129.30000000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>27608.280665</v>
+        <v>27608.280664999998</v>
       </c>
       <c r="V24" s="1">
-        <v>7.668967</v>
+        <v>7.6689670000000003</v>
       </c>
       <c r="W24" s="1">
-        <v>1213.230000</v>
+        <v>1213.23</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.102000</v>
+        <v>-108.102</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>27618.546858</v>
+        <v>27618.546858000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.671819</v>
+        <v>7.6718190000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>1220.540000</v>
+        <v>1220.54</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.788500</v>
+        <v>-90.788499999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>27628.718316</v>
+        <v>27628.718315999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.674644</v>
+        <v>7.6746439999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.094000</v>
+        <v>-86.093999999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>27639.049983</v>
+        <v>27639.049983000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.677514</v>
+        <v>7.6775140000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>1232.010000</v>
+        <v>1232.01</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.327700</v>
+        <v>-89.327699999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>27649.910880</v>
+        <v>27649.910879999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.680531</v>
+        <v>7.6805310000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1239.830000</v>
+        <v>1239.83</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.199000</v>
+        <v>-101.199</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>27661.016305</v>
+        <v>27661.016305000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.683616</v>
+        <v>7.6836159999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1249.570000</v>
+        <v>1249.57</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.608000</v>
+        <v>-120.608</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>27672.211540</v>
+        <v>27672.21154</v>
       </c>
       <c r="AZ24" s="1">
         <v>7.686725</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.850000</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.223000</v>
+        <v>-138.22300000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>27683.206820</v>
+        <v>27683.206819999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.689780</v>
+        <v>7.6897799999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1297.470000</v>
+        <v>1297.47</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.949000</v>
+        <v>-220.94900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>27694.203654</v>
+        <v>27694.203654000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.692834</v>
+        <v>7.6928340000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1366.980000</v>
+        <v>1366.98</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.178000</v>
+        <v>-359.178</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>27704.799657</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.695778</v>
+        <v>7.6957779999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1481.980000</v>
+        <v>1481.98</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-583.965000</v>
+        <v>-583.96500000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>27716.569720</v>
+        <v>27716.56972</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.699047</v>
+        <v>7.6990470000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1614.150000</v>
+        <v>1614.15</v>
       </c>
       <c r="BV24" s="1">
-        <v>-837.653000</v>
+        <v>-837.65300000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>27727.483722</v>
+        <v>27727.483722000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.702079</v>
+        <v>7.7020790000000003</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1767.370000</v>
+        <v>1767.37</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1113.750000</v>
+        <v>-1113.75</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>27740.693640</v>
+        <v>27740.693640000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.705748</v>
+        <v>7.7057479999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>2187.050000</v>
+        <v>2187.0500000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1785.640000</v>
+        <v>-1785.64</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>27566.896464</v>
+        <v>27566.896464000001</v>
       </c>
       <c r="B25" s="1">
-        <v>7.657471</v>
+        <v>7.6574710000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.080000</v>
+        <v>1149.08</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.080000</v>
+        <v>-261.08</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>27577.359285</v>
+        <v>27577.359284999999</v>
       </c>
       <c r="G25" s="1">
-        <v>7.660378</v>
+        <v>7.6603779999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>1170.330000</v>
+        <v>1170.33</v>
       </c>
       <c r="I25" s="1">
-        <v>-218.920000</v>
+        <v>-218.92</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>27587.849497</v>
+        <v>27587.849496999999</v>
       </c>
       <c r="L25" s="1">
-        <v>7.663292</v>
+        <v>7.6632920000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1198.080000</v>
+        <v>1198.08</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.449000</v>
+        <v>-151.44900000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>27598.132550</v>
+        <v>27598.132549999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.666148</v>
+        <v>7.6661479999999997</v>
       </c>
       <c r="R25" s="1">
-        <v>1206.110000</v>
+        <v>1206.1099999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.291000</v>
+        <v>-129.291</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>27608.625879</v>
+        <v>27608.625878999999</v>
       </c>
       <c r="V25" s="1">
-        <v>7.669063</v>
+        <v>7.6690630000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>1213.220000</v>
+        <v>1213.22</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.048000</v>
+        <v>-108.048</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>27618.977385</v>
+        <v>27618.977384999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.671938</v>
+        <v>7.6719379999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1220.570000</v>
+        <v>1220.57</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.779400</v>
+        <v>-90.779399999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>27629.140907</v>
+        <v>27629.140907000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.674761</v>
+        <v>7.6747610000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1225.140000</v>
+        <v>1225.1400000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.085600</v>
+        <v>-86.085599999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>27639.340638</v>
+        <v>27639.340638000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.677595</v>
+        <v>7.6775950000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1232.020000</v>
+        <v>1232.02</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.362600</v>
+        <v>-89.3626</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>27650.272496</v>
+        <v>27650.272496000001</v>
       </c>
       <c r="AP25" s="1">
         <v>7.680631</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1239.770000</v>
+        <v>1239.77</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.212000</v>
+        <v>-101.212</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>27661.379377</v>
+        <v>27661.379377000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.683716</v>
+        <v>7.6837160000000004</v>
       </c>
       <c r="AV25" s="1">
-        <v>1249.590000</v>
+        <v>1249.5899999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.691000</v>
+        <v>-120.691</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>27672.570148</v>
+        <v>27672.570147999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.686825</v>
+        <v>7.6868249999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.191000</v>
+        <v>-138.191</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>27683.925027</v>
+        <v>27683.925027000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.689979</v>
+        <v>7.6899790000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1297.430000</v>
+        <v>1297.43</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.967000</v>
+        <v>-220.96700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>27694.958038</v>
+        <v>27694.958038000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.693044</v>
+        <v>7.6930440000000004</v>
       </c>
       <c r="BK25" s="1">
-        <v>1367.020000</v>
+        <v>1367.02</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.167000</v>
+        <v>-359.16699999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>27705.193479</v>
+        <v>27705.193479000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.695887</v>
+        <v>7.6958869999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1481.990000</v>
+        <v>1481.99</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-584.031000</v>
+        <v>-584.03099999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>27716.983881</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.699162</v>
+        <v>7.6991620000000003</v>
       </c>
       <c r="BU25" s="1">
-        <v>1614.200000</v>
+        <v>1614.2</v>
       </c>
       <c r="BV25" s="1">
-        <v>-837.504000</v>
+        <v>-837.50400000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>27727.929140</v>
+        <v>27727.92914</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.702203</v>
+        <v>7.7022029999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1767.480000</v>
+        <v>1767.48</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1113.460000</v>
+        <v>-1113.46</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>27741.520967</v>
@@ -6632,60 +7048,60 @@
         <v>7.705978</v>
       </c>
       <c r="CE25" s="1">
-        <v>2187.990000</v>
+        <v>2187.9899999999998</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1784.110000</v>
+        <v>-1784.11</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>27567.240191</v>
+        <v>27567.240191000001</v>
       </c>
       <c r="B26" s="1">
-        <v>7.657567</v>
+        <v>7.6575670000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1148.680000</v>
+        <v>1148.68</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.184000</v>
+        <v>-261.18400000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>27577.705279</v>
+        <v>27577.705279000002</v>
       </c>
       <c r="G26" s="1">
-        <v>7.660474</v>
+        <v>7.6604739999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1170.660000</v>
+        <v>1170.6600000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.917000</v>
+        <v>-218.917</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>27588.193713</v>
+        <v>27588.193713000001</v>
       </c>
       <c r="L26" s="1">
-        <v>7.663387</v>
+        <v>7.6633870000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1198.270000</v>
+        <v>1198.27</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.634000</v>
+        <v>-151.63399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>27598.481204</v>
@@ -6694,210 +7110,211 @@
         <v>7.666245</v>
       </c>
       <c r="R26" s="1">
-        <v>1206.100000</v>
+        <v>1206.0999999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.270000</v>
+        <v>-129.27000000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>27609.055923</v>
       </c>
       <c r="V26" s="1">
-        <v>7.669182</v>
+        <v>7.6691820000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1213.220000</v>
+        <v>1213.22</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.079000</v>
+        <v>-108.07899999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>27619.257658</v>
+        <v>27619.257657999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.672016</v>
+        <v>7.6720160000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>1220.550000</v>
+        <v>1220.55</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.706800</v>
+        <v>-90.706800000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>27629.413739</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.674837</v>
+        <v>7.6748370000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.041200</v>
+        <v>-86.041200000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>27639.689358</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.677691</v>
+        <v>7.6776910000000003</v>
       </c>
       <c r="AL26" s="1">
-        <v>1232.030000</v>
+        <v>1232.03</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.354900</v>
+        <v>-89.354900000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>27650.632064</v>
+        <v>27650.632064000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.680731</v>
+        <v>7.6807309999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.226000</v>
+        <v>-101.226</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>27661.978050</v>
+        <v>27661.978050000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.683883</v>
+        <v>7.6838829999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1249.580000</v>
+        <v>1249.58</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.617000</v>
+        <v>-120.617</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>27673.289809</v>
+        <v>27673.289809000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.687025</v>
+        <v>7.6870250000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.850000</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.206000</v>
+        <v>-138.20599999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>27684.285619</v>
+        <v>27684.285618999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.690079</v>
+        <v>7.6900789999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1297.450000</v>
+        <v>1297.45</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.931000</v>
+        <v>-220.93100000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>27695.332022</v>
+        <v>27695.332021999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.693148</v>
+        <v>7.6931479999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1366.990000</v>
+        <v>1366.99</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.214000</v>
+        <v>-359.214</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>27705.617063</v>
+        <v>27705.617063000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.696005</v>
+        <v>7.6960050000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1481.990000</v>
+        <v>1481.99</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-584.025000</v>
+        <v>-584.02499999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>27717.708569</v>
+        <v>27717.708568999999</v>
       </c>
       <c r="BT26" s="1">
         <v>7.699363</v>
       </c>
       <c r="BU26" s="1">
-        <v>1614.270000</v>
+        <v>1614.27</v>
       </c>
       <c r="BV26" s="1">
-        <v>-837.253000</v>
+        <v>-837.25300000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>27728.667145</v>
+        <v>27728.667144999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.702408</v>
+        <v>7.7024080000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1767.370000</v>
+        <v>1767.37</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1113.580000</v>
+        <v>-1113.58</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>27741.726346</v>
+        <v>27741.726345999999</v>
       </c>
       <c r="CD26" s="1">
         <v>7.706035</v>
       </c>
       <c r="CE26" s="1">
-        <v>2186.410000</v>
+        <v>2186.41</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1783.610000</v>
+        <v>-1783.61</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>